--- a/trunk/Docs/esc.xlsx
+++ b/trunk/Docs/esc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
@@ -11,13 +11,24 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +36,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,177 +75,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>72.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="102157312"/>
-        <c:axId val="106369792"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="102157312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106369792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="106369792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102157312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +116,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -336,7 +186,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,206 +360,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>IF(A2&gt;45,A2*A2/100,0)</f>
+        <f>MAX(0,A2*1-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B22" si="0">IF(A3&gt;45,A3*A3/100,0)</f>
-        <v>0</v>
+        <f t="shared" ref="B3:B20" si="0">MAX(0,A3*1-1)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>30.25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>42.25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>56.25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>72.25</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>95</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -721,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -733,6 +574,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>